--- a/data/pointage.xlsx
+++ b/data/pointage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFB6395-8E34-4061-9F5B-6852A4D0D8AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510CAE2-119D-478D-8F01-C9E4EF2486CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -112,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -123,7 +123,6 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -342,7 +341,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -396,7 +395,7 @@
       <c r="E2" s="5">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" s="5">

--- a/data/pointage.xlsx
+++ b/data/pointage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510CAE2-119D-478D-8F01-C9E4EF2486CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CA2B6-7459-4F0B-B3AE-3FFFD1CFA4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>date</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>passager</t>
-  </si>
-  <si>
-    <t>zone</t>
   </si>
 </sst>
 </file>
@@ -338,10 +335,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1000"/>
+  <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -352,11 +349,10 @@
     <col min="4" max="4" width="9.26953125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="5.08984375" customWidth="1"/>
-    <col min="8" max="26" width="8.6328125" customWidth="1"/>
+    <col min="7" max="25" width="8.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -375,11 +371,8 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>45530</v>
       </c>
@@ -398,11 +391,8 @@
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>45530</v>
       </c>
@@ -418,11 +408,8 @@
       <c r="E3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>45530</v>
       </c>
@@ -438,11 +425,8 @@
       <c r="F4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>45530</v>
       </c>
@@ -458,11 +442,8 @@
       <c r="E5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>45531</v>
       </c>
@@ -478,11 +459,8 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>45531</v>
       </c>
@@ -498,11 +476,8 @@
       <c r="E7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>45532</v>
       </c>
@@ -518,11 +493,8 @@
       <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>45532</v>
       </c>
@@ -538,11 +510,8 @@
       <c r="F9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>45533</v>
       </c>
@@ -558,11 +527,8 @@
       <c r="F10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>45533</v>
       </c>
@@ -578,11 +544,8 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="G11" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>45534</v>
       </c>
@@ -598,11 +561,8 @@
       <c r="F12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>45534</v>
       </c>
@@ -618,11 +578,8 @@
       <c r="F13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>45506</v>
       </c>
@@ -638,11 +595,8 @@
       <c r="E14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>45506</v>
       </c>
@@ -658,11 +612,8 @@
       <c r="E15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>45507</v>
       </c>
@@ -678,11 +629,8 @@
       <c r="F16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>45507</v>
       </c>
@@ -698,11 +646,8 @@
       <c r="F17" s="5">
         <v>1</v>
       </c>
-      <c r="G17" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>45508</v>
       </c>
@@ -718,11 +663,8 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>45508</v>
       </c>
@@ -738,11 +680,8 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="14.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>45509</v>
       </c>
@@ -758,11 +697,8 @@
       <c r="F20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>45509</v>
       </c>
@@ -778,11 +714,8 @@
       <c r="F21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>45510</v>
       </c>
@@ -798,11 +731,8 @@
       <c r="E22" s="5">
         <v>1</v>
       </c>
-      <c r="G22" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>45510</v>
       </c>
@@ -815,19 +745,16 @@
       <c r="D23" s="4">
         <v>7.75</v>
       </c>
-      <c r="G23" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>

--- a/data/pointage.xlsx
+++ b/data/pointage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJETS\POINTAGE\POINTAGE\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8CA2B6-7459-4F0B-B3AE-3FFFD1CFA4B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B506A0-2870-4A23-8B80-88C4E011C30D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>date</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>passager</t>
+  </si>
+  <si>
+    <t>abs</t>
   </si>
 </sst>
 </file>
@@ -109,7 +112,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -120,6 +123,11 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -335,16 +343,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1000"/>
+  <dimension ref="A1:F1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6328125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.08984375" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="11.08984375" customWidth="1"/>
+    <col min="2" max="2" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7265625" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -353,11 +361,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
@@ -373,420 +381,1000 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="3">
-        <v>45530</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>3277</v>
-      </c>
-      <c r="D2" s="4">
-        <v>4</v>
-      </c>
-      <c r="E2" s="5">
-        <v>1</v>
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45446</v>
+      </c>
+      <c r="C2">
+        <v>3270</v>
+      </c>
+      <c r="D2">
+        <v>7.45</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="3">
-        <v>45530</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="4">
-        <v>3333</v>
-      </c>
-      <c r="D3" s="4">
-        <v>3.75</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
+        <v>45447</v>
+      </c>
+      <c r="C3">
+        <v>3270</v>
+      </c>
+      <c r="D3">
+        <v>7.45</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="3">
-        <v>45530</v>
-      </c>
-      <c r="B4" s="4">
-        <v>2</v>
-      </c>
-      <c r="C4" s="4">
-        <v>3496</v>
-      </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45448</v>
+      </c>
+      <c r="C4">
+        <v>3270</v>
+      </c>
+      <c r="D4">
+        <v>7.45</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="3">
-        <v>45530</v>
-      </c>
-      <c r="B5" s="4">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>3427</v>
-      </c>
-      <c r="D5" s="4">
-        <v>6.75</v>
-      </c>
-      <c r="E5" s="5">
-        <v>1</v>
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45449</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>7.45</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="3">
-        <v>45531</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4">
-        <v>3277</v>
-      </c>
-      <c r="D6" s="4">
-        <v>9</v>
-      </c>
-      <c r="E6" s="5">
-        <v>1</v>
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45450</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>7.45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="3">
-        <v>45531</v>
-      </c>
-      <c r="B7" s="4">
-        <v>2</v>
-      </c>
-      <c r="C7" s="4">
-        <v>3496</v>
-      </c>
-      <c r="D7" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45453</v>
+      </c>
+      <c r="C7">
+        <v>3270</v>
+      </c>
+      <c r="D7">
+        <v>7.45</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="3">
-        <v>45532</v>
-      </c>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D8" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45454</v>
+      </c>
+      <c r="C8">
+        <v>3270</v>
+      </c>
+      <c r="D8">
+        <v>7.45</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="3">
-        <v>45532</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45455</v>
+      </c>
+      <c r="C9">
+        <v>3270</v>
+      </c>
+      <c r="D9">
+        <v>7.45</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45456</v>
+      </c>
+      <c r="C10">
+        <v>3270</v>
+      </c>
+      <c r="D10">
+        <v>7.45</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45457</v>
+      </c>
+      <c r="C11">
+        <v>3270</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="6">
+        <v>45460</v>
+      </c>
+      <c r="C12">
+        <v>3270</v>
+      </c>
+      <c r="D12">
+        <v>7.45</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="B13" s="6">
+        <v>45461</v>
+      </c>
+      <c r="C13">
+        <v>3270</v>
+      </c>
+      <c r="D13">
+        <v>7.45</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="6">
+        <v>45462</v>
+      </c>
+      <c r="C14">
+        <v>3270</v>
+      </c>
+      <c r="D14">
+        <v>7.45</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15" s="6">
+        <v>45463</v>
+      </c>
+      <c r="C15">
+        <v>3270</v>
+      </c>
+      <c r="D15">
+        <v>7.45</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="6">
+        <v>45464</v>
+      </c>
+      <c r="C16">
+        <v>3270</v>
+      </c>
+      <c r="D16">
+        <v>4.3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17" s="6">
+        <v>45467</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45468</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45469</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>7.45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45470</v>
+      </c>
+      <c r="C20">
         <v>3450</v>
       </c>
-      <c r="D9" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="3">
-        <v>45533</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D10" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="3">
-        <v>45533</v>
-      </c>
-      <c r="B11" s="4">
-        <v>2</v>
-      </c>
-      <c r="C11" s="4">
+      <c r="D20">
+        <v>7.45</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45471</v>
+      </c>
+      <c r="C21">
         <v>3450</v>
       </c>
-      <c r="D11" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="3">
-        <v>45534</v>
-      </c>
-      <c r="B12" s="4">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D12" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="3">
-        <v>45534</v>
-      </c>
-      <c r="B13" s="4">
-        <v>2</v>
-      </c>
-      <c r="C13" s="4">
-        <v>3450</v>
-      </c>
-      <c r="D13" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F13" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="3">
+      <c r="D21">
+        <v>6.15</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
         <v>45506</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1</v>
-      </c>
-      <c r="C14" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D14" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E14" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="3">
-        <v>45506</v>
-      </c>
-      <c r="B15" s="4">
-        <v>2</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3450</v>
-      </c>
-      <c r="D15" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E15" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="3">
-        <v>45507</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D16" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="3">
-        <v>45507</v>
-      </c>
-      <c r="B17" s="4">
-        <v>2</v>
-      </c>
-      <c r="C17" s="4">
-        <v>3450</v>
-      </c>
-      <c r="D17" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F17" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="3">
-        <v>45508</v>
-      </c>
-      <c r="B18" s="4">
-        <v>1</v>
-      </c>
-      <c r="C18" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D18" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E18" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="3">
-        <v>45508</v>
-      </c>
-      <c r="B19" s="4">
-        <v>2</v>
-      </c>
-      <c r="C19" s="4">
-        <v>3450</v>
-      </c>
-      <c r="D19" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="E19" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="3">
-        <v>45509</v>
-      </c>
-      <c r="B20" s="4">
-        <v>1</v>
-      </c>
-      <c r="C20" s="4">
-        <v>3401</v>
-      </c>
-      <c r="D20" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F20" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="3">
-        <v>45509</v>
-      </c>
-      <c r="B21" s="4">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4">
-        <v>3450</v>
-      </c>
-      <c r="D21" s="4">
-        <v>7.75</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="3">
-        <v>45510</v>
-      </c>
-      <c r="B22" s="4">
-        <v>1</v>
       </c>
       <c r="C22" s="4">
         <v>3401</v>
       </c>
       <c r="D22" s="4">
-        <v>7.75</v>
+        <v>7.45</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>45507</v>
+      </c>
+      <c r="C23" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D23" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>45508</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D24" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3">
+        <v>45509</v>
+      </c>
+      <c r="C25" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D25" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3">
         <v>45510</v>
       </c>
-      <c r="B23" s="4">
+      <c r="C26" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D26" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="4">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3">
+        <v>45530</v>
+      </c>
+      <c r="C27" s="4">
+        <v>3277</v>
+      </c>
+      <c r="D27" s="4">
+        <v>4</v>
+      </c>
+      <c r="E27" s="5">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3">
+        <v>45530</v>
+      </c>
+      <c r="C28" s="4">
+        <v>3333</v>
+      </c>
+      <c r="D28" s="4">
+        <v>3.75</v>
+      </c>
+      <c r="E28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="4">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3">
+        <v>45531</v>
+      </c>
+      <c r="C29" s="4">
+        <v>3277</v>
+      </c>
+      <c r="D29" s="4">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3">
+        <v>45532</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D30" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="4">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3">
+        <v>45533</v>
+      </c>
+      <c r="C31" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D31" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="4">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3">
+        <v>45534</v>
+      </c>
+      <c r="C32" s="4">
+        <v>3401</v>
+      </c>
+      <c r="D32" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F32" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="4">
         <v>2</v>
       </c>
-      <c r="C23" s="4">
+      <c r="B33" s="3">
+        <v>45506</v>
+      </c>
+      <c r="C33" s="4">
         <v>3450</v>
       </c>
-      <c r="D23" s="4">
-        <v>7.75</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="33" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="34" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="35" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="36" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="37" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="38" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="39" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="40" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="42" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="43" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="44" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="45" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="46" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="47" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="48" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="49" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="51" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="52" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="53" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="54" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="55" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="56" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="57" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="58" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="59" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="60" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="61" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="62" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="63" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="64" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+      <c r="D33" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4">
+        <v>2</v>
+      </c>
+      <c r="B34" s="3">
+        <v>45507</v>
+      </c>
+      <c r="C34" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D34" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F34" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4">
+        <v>2</v>
+      </c>
+      <c r="B35" s="3">
+        <v>45508</v>
+      </c>
+      <c r="C35" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D35" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E35" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="4">
+        <v>2</v>
+      </c>
+      <c r="B36" s="3">
+        <v>45509</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D36" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="4">
+        <v>2</v>
+      </c>
+      <c r="B37" s="3">
+        <v>45510</v>
+      </c>
+      <c r="C37" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D37" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="4">
+        <v>2</v>
+      </c>
+      <c r="B38" s="3">
+        <v>45530</v>
+      </c>
+      <c r="C38" s="4">
+        <v>3496</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="F38" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4">
+        <v>2</v>
+      </c>
+      <c r="B39" s="3">
+        <v>45530</v>
+      </c>
+      <c r="C39" s="4">
+        <v>3427</v>
+      </c>
+      <c r="D39" s="4">
+        <v>6.75</v>
+      </c>
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4">
+        <v>2</v>
+      </c>
+      <c r="B40" s="3">
+        <v>45531</v>
+      </c>
+      <c r="C40" s="4">
+        <v>3496</v>
+      </c>
+      <c r="D40" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E40" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <v>2</v>
+      </c>
+      <c r="B41" s="3">
+        <v>45532</v>
+      </c>
+      <c r="C41" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D41" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="4">
+        <v>2</v>
+      </c>
+      <c r="B42" s="3">
+        <v>45533</v>
+      </c>
+      <c r="C42" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D42" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="E42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="4">
+        <v>2</v>
+      </c>
+      <c r="B43" s="3">
+        <v>45534</v>
+      </c>
+      <c r="C43" s="4">
+        <v>3450</v>
+      </c>
+      <c r="D43" s="4">
+        <v>7.45</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>125</v>
+      </c>
+      <c r="B44" s="6">
+        <v>45446</v>
+      </c>
+      <c r="C44" s="8">
+        <v>0</v>
+      </c>
+      <c r="D44">
+        <v>7.45</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>125</v>
+      </c>
+      <c r="B45" s="6">
+        <v>45447</v>
+      </c>
+      <c r="C45" s="8">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>7.45</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>125</v>
+      </c>
+      <c r="B46" s="6">
+        <v>45448</v>
+      </c>
+      <c r="C46" s="8">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>7.45</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>125</v>
+      </c>
+      <c r="B47" s="6">
+        <v>45449</v>
+      </c>
+      <c r="C47" s="8">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>7.45</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>125</v>
+      </c>
+      <c r="B48" s="6">
+        <v>45450</v>
+      </c>
+      <c r="C48" s="8">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <v>7.45</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>125</v>
+      </c>
+      <c r="B49" s="6">
+        <v>45453</v>
+      </c>
+      <c r="C49">
+        <v>3333</v>
+      </c>
+      <c r="D49">
+        <v>7.45</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>125</v>
+      </c>
+      <c r="B50" s="6">
+        <v>45454</v>
+      </c>
+      <c r="C50">
+        <v>3333</v>
+      </c>
+      <c r="D50">
+        <v>7.45</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>125</v>
+      </c>
+      <c r="B51" s="6">
+        <v>45455</v>
+      </c>
+      <c r="C51">
+        <v>3333</v>
+      </c>
+      <c r="D51">
+        <v>7.45</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>125</v>
+      </c>
+      <c r="B52" s="6">
+        <v>45456</v>
+      </c>
+      <c r="C52">
+        <v>3333</v>
+      </c>
+      <c r="D52">
+        <v>6.15</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>125</v>
+      </c>
+      <c r="B53" s="6">
+        <v>45460</v>
+      </c>
+      <c r="C53">
+        <v>3333</v>
+      </c>
+      <c r="D53">
+        <v>7.45</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>125</v>
+      </c>
+      <c r="B54" s="6">
+        <v>45461</v>
+      </c>
+      <c r="C54">
+        <v>3333</v>
+      </c>
+      <c r="D54">
+        <v>7.45</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>125</v>
+      </c>
+      <c r="B55" s="6">
+        <v>45462</v>
+      </c>
+      <c r="C55">
+        <v>3333</v>
+      </c>
+      <c r="D55">
+        <v>7.45</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>125</v>
+      </c>
+      <c r="B56" s="6">
+        <v>45463</v>
+      </c>
+      <c r="C56">
+        <v>3333</v>
+      </c>
+      <c r="D56">
+        <v>7.45</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>125</v>
+      </c>
+      <c r="B57" s="6">
+        <v>45464</v>
+      </c>
+      <c r="C57">
+        <v>3333</v>
+      </c>
+      <c r="D57">
+        <v>6.15</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>125</v>
+      </c>
+      <c r="B58" s="6">
+        <v>45467</v>
+      </c>
+      <c r="C58">
+        <v>3333</v>
+      </c>
+      <c r="D58">
+        <v>7.45</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>125</v>
+      </c>
+      <c r="B59" s="6">
+        <v>45468</v>
+      </c>
+      <c r="C59">
+        <v>3333</v>
+      </c>
+      <c r="D59">
+        <v>7.45</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>125</v>
+      </c>
+      <c r="B60" s="6">
+        <v>45469</v>
+      </c>
+      <c r="C60">
+        <v>3333</v>
+      </c>
+      <c r="D60">
+        <v>7.45</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="65" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="66" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="67" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1723,7 +2311,11 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F60">
+    <sortCondition ref="A2:A60"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
